--- a/docs/API_SIM_Project.xlsx
+++ b/docs/API_SIM_Project.xlsx
@@ -23,63 +23,77 @@
   </office:font-face-decls>
   <office:automatic-styles>
     <style:style style:name="co1" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="35.69pt"/>
+    </style:style>
+    <style:style style:name="co2" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="81.04pt"/>
+    </style:style>
+    <style:style style:name="co3" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="56.89pt"/>
+    </style:style>
+    <style:style style:name="co4" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="115pt"/>
+    </style:style>
+    <style:style style:name="co5" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="158.26pt"/>
+    </style:style>
+    <style:style style:name="co6" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="165.94pt"/>
+    </style:style>
+    <style:style style:name="co7" style:family="table-column">
+      <style:table-column-properties fo:break-before="auto" style:column-width="210.36pt"/>
+    </style:style>
+    <style:style style:name="co8" style:family="table-column">
       <style:table-column-properties fo:break-before="auto" style:column-width="64.01pt"/>
     </style:style>
-    <style:style style:name="co2" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="128.89pt"/>
-    </style:style>
-    <style:style style:name="co3" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="115pt"/>
-    </style:style>
-    <style:style style:name="co4" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="158.26pt"/>
-    </style:style>
-    <style:style style:name="co5" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="165.94pt"/>
-    </style:style>
-    <style:style style:name="co6" style:family="table-column">
-      <style:table-column-properties fo:break-before="auto" style:column-width="268.61pt"/>
-    </style:style>
     <style:style style:name="ro1" style:family="table-row">
+      <style:table-row-properties style:row-height="13.1pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro2" style:family="table-row">
+      <style:table-row-properties style:row-height="103.1pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro3" style:family="table-row">
+      <style:table-row-properties style:row-height="114.35pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro4" style:family="table-row">
+      <style:table-row-properties style:row-height="80.59pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro5" style:family="table-row">
+      <style:table-row-properties style:row-height="170.59pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro6" style:family="table-row">
+      <style:table-row-properties style:row-height="35.6pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro7" style:family="table-row">
+      <style:table-row-properties style:row-height="69.36pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro8" style:family="table-row">
+      <style:table-row-properties style:row-height="58.11pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
+    </style:style>
+    <style:style style:name="ro9" style:family="table-row">
       <style:table-row-properties style:row-height="12.81pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro2" style:family="table-row">
-      <style:table-row-properties style:row-height="102.76pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro3" style:family="table-row">
-      <style:table-row-properties style:row-height="114.01pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro4" style:family="table-row">
-      <style:table-row-properties style:row-height="80.25pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro5" style:family="table-row">
-      <style:table-row-properties style:row-height="170.25pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
-    </style:style>
-    <style:style style:name="ro6" style:family="table-row">
-      <style:table-row-properties style:row-height="35.26pt" fo:break-before="auto" style:use-optimal-row-height="true"/>
     </style:style>
     <style:style style:name="ta1" style:family="table" style:master-page-name="Default">
       <style:table-properties table:display="true" style:writing-mode="lr-tb"/>
-    </style:style>
-    <style:style style:name="ce1" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center"/>
-    </style:style>
-    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" style:vertical-align="middle"/>
-    </style:style>
-    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" style:vertical-align="middle"/>
-      <style:text-properties fo:font-style="normal" style:font-style-asian="normal" style:font-style-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
-      <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
     </style:style>
     <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center"/>
     </style:style>
+    <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0pt"/>
+    </style:style>
+    <style:style style:name="ce3" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center"/>
+    </style:style>
+    <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:vertical-align="middle"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:wrap-option="wrap"/>
+    </style:style>
     <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" style:vertical-align="middle"/>
     </style:style>
@@ -87,62 +101,20 @@
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" style:vertical-align="middle"/>
       <style:text-properties fo:font-style="normal" style:font-style-asian="normal" style:font-style-complex="normal"/>
     </style:style>
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0pt"/>
+      <style:text-properties fo:font-style="italic"/>
+    </style:style>
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="start" fo:margin-left="0pt"/>
+    </style:style>
     <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle" loext:vertical-justify="auto"/>
       <style:paragraph-properties css3t:text-justify="auto" fo:margin-left="0pt" style:writing-mode="page"/>
     </style:style>
-    <style:style style:name="T2" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T3" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T4" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T5" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T6" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T7" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T8" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T9" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T10" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T11" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T12" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T13" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T14" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T15" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T16" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T17" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
     <style:style style:name="T1" style:family="text">
-      <style:text-properties style:text-outline="false" style:text-line-through-style="none" style:text-line-through-type="none" style:font-name="Liberation Sans" fo:font-size="10pt" fo:language="en" fo:country="US" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:text-underline-mode="continuous" style:text-overline-mode="continuous" style:text-line-through-mode="continuous" style:font-name-asian="Noto Sans CJK SC Regular" style:font-size-asian="10pt" style:language-asian="zh" style:country-asian="CN" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Lohit Devanagari" style:font-size-complex="10pt" style:language-complex="hi" style:country-complex="IN" style:font-style-complex="normal" style:font-weight-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
-    </style:style>
-    <style:style style:name="T19" style:family="text">
       <style:text-properties style:font-name="Liberation Sans" fo:font-size="10pt" fo:font-weight="normal" style:text-underline-style="none" style:text-underline-color="font-color" style:text-line-through-type="none" fo:font-style="normal" style:text-outline="false" fo:text-shadow="none" style:text-line-through-mode="continuous" fo:language="en" fo:country="US" style:language-asian="zh" style:country-asian="CN" style:language-complex="hi" style:country-complex="IN" style:font-name-asian="Noto Sans CJK SC Regular" style:font-name-complex="Lohit Devanagari" style:font-size-asian="10pt" style:font-size-complex="10pt" style:font-weight-asian="normal" style:font-weight-complex="normal" style:font-style-asian="normal" style:font-style-complex="normal" style:text-emphasize="none" style:font-relief="none" style:text-overline-style="none" style:text-overline-color="font-color"/>
     </style:style>
   </office:automatic-styles>
@@ -150,18 +122,19 @@
     <office:spreadsheet>
       <table:calculation-settings table:automatic-find-labels="false" table:use-regular-expressions="false" table:use-wildcards="true"/>
       <table:table table:name="Sheet1" table:style-name="ta1">
-        <table:table-column table:style-name="co1" table:default-cell-style-name="ce9"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce10"/>
-        <table:table-column table:style-name="co1" table:default-cell-style-name="ce10"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce10"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="ce10"/>
-        <table:table-column table:style-name="co5" table:default-cell-style-name="ce10"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce10"/>
+        <table:table-column table:style-name="co1" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co5" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="Default"/>
+        <table:table-column table:style-name="co7" table:default-cell-style-name="ce5"/>
+        <table:table-column table:style-name="co8" table:number-columns-repeated="1017" table:default-cell-style-name="Default"/>
         <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>STT</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>Name</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
@@ -176,30 +149,31 @@
           <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
             <text:p>Sample Payload</text:p>
           </table:table-cell>
-          <table:table-cell table:style-name="ce9" office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce3" office:value-type="string" calcext:value-type="string">
             <text:p>Response</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="float" office:value="1" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="1" calcext:value-type="float">
             <text:p>1</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>User register</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/user/register</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> username: String,</text:p>
             <text:p> password: String</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> username: “username”,</text:p>
             <text:p> password: “password”</text:p>
@@ -216,531 +190,700 @@
             <text:p>    }</text:p>
             <text:p>}</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
-          <table:table-cell office:value-type="float" office:value="2" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="2" calcext:value-type="float">
             <text:p>2</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>User sign in</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/user/signin</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> username: String,</text:p>
             <text:p> password: String</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> username: “username”,</text:p>
             <text:p> password: “password”</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "id": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "username": "username",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "password": "j13sdfks25mc9wsmie9"</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "id": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "username": "username",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "password": "j13sdfks25mc9wsmie9"</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell office:value-type="float" office:value="3" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="3" calcext:value-type="float">
             <text:p>3</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Create gallery</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce11" office:value-type="string" calcext:value-type="string">
             <text:p>/gallery/new</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> name: String,</text:p>
             <text:p> userID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> name: “galleryname”,</text:p>
             <text:p> userID: 1</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “galleryname”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "listImage": []</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “galleryname”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "listImage": []</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
-          <table:table-cell office:value-type="float" office:value="4" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="4" calcext:value-type="float">
             <text:p>4</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Remove gallery</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/gallery/remove</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> galleryID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> galleryID: 1</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell office:value-type="float" office:value="5" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="5" calcext:value-type="float">
             <text:p>5</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>List gallery by user’s ID</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/gallery/list</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> userID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> userID: 1</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": [{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “galleryname1”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "listImage": []</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }, {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 2,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “galleryname2”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "listImage": []</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }]</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": [{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “galleryname1”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "listImage": []</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }, {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 2,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “galleryname2”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "listImage": []</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }]</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro3">
-          <table:table-cell office:value-type="float" office:value="6" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="6" calcext:value-type="float">
             <text:p>6</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Create image</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/image/new</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> name: String,</text:p>
             <text:p> userID: Number,</text:p>
             <text:p> galleryID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> name: “imagename”,</text:p>
             <text:p> userID: 1,</text:p>
             <text:p> galleryID: 1</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “imageID”: 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “imagename”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “imageID”: 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “imagename”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro4">
-          <table:table-cell office:value-type="float" office:value="7" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="7" calcext:value-type="float">
             <text:p>7</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Remove image</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/image/remove</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> imageID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> imageID: 1</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "imageID": 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "imageID": 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro6">
-          <table:table-cell office:value-type="float" office:value="8" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="8" calcext:value-type="float">
             <text:p>8</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>Download image</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/image/download</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> imageID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19"> imageID: 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1"> imageID: 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>{}</text:p>
           </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell office:value-type="float" office:value="9" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="9" calcext:value-type="float">
             <text:p>9</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>List images by gallery’s ID</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/image/listByGalleryID</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> userID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19"> userID: 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": [{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “imageID”: 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “imagename1”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }, {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “imageID”: 2,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “imagename2”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }]</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1"> userID: 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": [{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “imageID”: 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “imagename1”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }, {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “imageID”: 2,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “imagename2”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }]</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
         </table:table-row>
         <table:table-row table:style-name="ro5">
-          <table:table-cell office:value-type="float" office:value="10" calcext:value-type="float">
+          <table:table-cell table:style-name="ce9" office:value-type="float" office:value="10" calcext:value-type="float">
             <text:p>10</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
             <text:p>List images by user’s ID</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>POST</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>/image/listByUserID</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
             <text:p>{</text:p>
             <text:p> galleryID: Number</text:p>
             <text:p>}</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19"> galleryID: 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:span text:style-name="T19">{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "code": 200,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "reason": "SUCCESSFULLY",</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    "content": [{</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “imageID”: 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “imagename1”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 1,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }, {</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “imageID”: 2,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        “name”: “imagename2”,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "galleryID": 2,</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">        "userID": 1</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">    }]</text:span>
-            </text:p>
-            <text:p>
-              <text:span text:style-name="T19">}</text:span>
-            </text:p>
-          </table:table-cell>
+          <table:table-cell table:style-name="ce10" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1"> galleryID: 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce4" office:value-type="string" calcext:value-type="string">
+            <text:p>
+              <text:span text:style-name="T1">{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "code": 200,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "reason": "SUCCESSFULLY",</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    "content": [{</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “imageID”: 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “imagename1”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 1,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }, {</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “imageID”: 2,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        “name”: “imagename2”,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "galleryID": 2,</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">        "userID": 1</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">    }]</text:span>
+            </text:p>
+            <text:p>
+              <text:span text:style-name="T1">}</text:span>
+            </text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro7">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="11" calcext:value-type="float">
+            <text:p>11</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>List all projects of an user</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>POST</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="string" calcext:value-type="string">
+            <text:p>/user/list-projects</text:p>
+          </table:table-cell>
+          <table:table-cell table:number-columns-repeated="2" table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{ </text:p>
+            <text:p>“code”: 200, </text:p>
+            <text:p>“reason”: “SUCCESSFULLY”,</text:p>
+            <text:p>“content”:[{“idProject”: 1, “projectName”: “abc”}]</text:p>
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="12" calcext:value-type="float">
+            <text:p>12</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>Create new Project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>POST</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>/user/new-project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{projectName: STRING}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{“projectName”:”abc”}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{ </text:p>
+            <text:p>“code”: 200, </text:p>
+            <text:p>“reason”: “SUCCESSFULLY”,</text:p>
+            <text:p>“content”:{</text:p>
+            <text:p>“idProject”: 1,</text:p>
+            <text:p>“projectName”: “abc”,</text:p>
+            <text:p>“projectInfo”: “{}”</text:p>
+            <text:p>}</text:p>
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro8">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="13" calcext:value-type="float">
+            <text:p>13</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>Delete a Project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>POST</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>/user/delete-project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{idProject: NUMBER}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{“idProject”: 1}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{ </text:p>
+            <text:p>“code”: 200, </text:p>
+            <text:p>“reason”: “SUCCESSFULLY”,</text:p>
+            <text:p>“content”:{}</text:p>
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="14" calcext:value-type="float">
+            <text:p>14</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>Get info of a Project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>POST</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>/user/info-project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{idProject: NUMBER}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{“idProject”: 1}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{ </text:p>
+            <text:p>“code”: 200, </text:p>
+            <text:p>“reason”: “SUCCESSFULLY”,</text:p>
+            <text:p>“content”:{</text:p>
+            <text:p>“idProject”: 1,</text:p>
+            <text:p>“projectName”: “abc”,</text:p>
+            <text:p>“projectInfo”: “{}”</text:p>
+            <text:p>}</text:p>
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro7">
+          <table:table-cell table:style-name="ce2" office:value-type="float" office:value="15" calcext:value-type="float">
+            <text:p>15</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>Update a Project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>POST</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" office:value-type="string" calcext:value-type="string">
+            <text:p>/user/update-project</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{</text:p>
+            <text:p>idProject: NUMBER,</text:p>
+            <text:p>projectName: STRING,</text:p>
+            <text:p>projectInfo: TEXT</text:p>
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{</text:p>
+            <text:p>“idProject”: 1,</text:p>
+            <text:p>“projectName”: “def”,</text:p>
+            <text:p>“projectInfo”: “{}”</text:p>
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce13" office:value-type="string" calcext:value-type="string">
+            <text:p>{ </text:p>
+            <text:p>“code”: 200, </text:p>
+            <text:p>“reason”: “SUCCESSFULLY”,</text:p>
+            <text:p>“content”: ”{ ‘idProject’: 1, ‘projectName’: ‘def’, ‘projectInfo’: ‘{}’ }”</text:p>
+            <text:p>}</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce2" table:number-columns-repeated="1017"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro9" table:number-rows-repeated="1048559">
+          <table:table-cell table:number-columns-repeated="1024"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro9">
+          <table:table-cell table:number-columns-repeated="1024"/>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -753,11 +896,11 @@
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
     <meta:creation-date>2018-10-23T21:14:35.084504688</meta:creation-date>
-    <dc:date>2018-10-23T22:14:27.346163374</dc:date>
-    <meta:editing-duration>PT49M11S</meta:editing-duration>
-    <meta:editing-cycles>22</meta:editing-cycles>
-    <meta:generator>LibreOffice/6.0.6.2$Linux_X86_64 LibreOffice_project/00m0$Build-2</meta:generator>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="77" meta:object-count="0"/>
+    <dc:date>2018-12-14T15:31:01.513295054</dc:date>
+    <meta:editing-duration>PT49M43S</meta:editing-duration>
+    <meta:editing-cycles>23</meta:editing-cycles>
+    <meta:generator>LibreOffice/6.0.7.3.0$Linux_X86_64 LibreOffice_project/00m0$Build-3</meta:generator>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="112" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -768,15 +911,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">34032</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">40668</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">29040</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">55019</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">11</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">4</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">9</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -785,18 +928,18 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">8</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-              <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+              <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
               <config:config-item config:name="ShowGrid" config:type="boolean">true</config:config-item>
               <config:config-item config:name="AnchoredTextOverflowLegacy" config:type="boolean">false</config:config-item>
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1307</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1311</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
-          <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
+          <config:config-item config:name="ZoomValue" config:type="int">80</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
           <config:config-item config:name="ShowPageBreakPreview" config:type="boolean">false</config:config-item>
           <config:config-item config:name="ShowZeroValues" config:type="boolean">true</config:config-item>
@@ -826,7 +969,7 @@
       <config:config-item config:name="IsKernAsianPunctuation" config:type="boolean">false</config:config-item>
       <config:config-item config:name="CharacterCompressionType" config:type="short">0</config:config-item>
       <config:config-item config:name="ApplyUserData" config:type="boolean">true</config:config-item>
-      <config:config-item config:name="PrinterSetup" config:type="base64Binary">hQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMApgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
+      <config:config-item config:name="PrinterSetup" config:type="base64Binary">kQH+/0dlbmVyaWMgUHJpbnRlcgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAU0dFTlBSVAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAWAAMAsgAAAAAAAAAEAAhSAAAEdAAASm9iRGF0YSAxCnByaW50ZXI9R2VuZXJpYyBQcmludGVyCm9yaWVudGF0aW9uPVBvcnRyYWl0CmNvcGllcz0xCm1hcmdpbmRhanVzdG1lbnQ9MCwwLDAsMApjb2xvcmRlcHRoPTI0CnBzbGV2ZWw9MApwZGZkZXZpY2U9MApjb2xvcmRldmljZT0wClBQRENvbnRleERhdGEKRHVwbGV4Ok5vbmUAUGFnZVNpemU6QTQAABIAQ09NUEFUX0RVUExFWF9NT0RFDwBEdXBsZXhNb2RlOjpPZmY=</config:config-item>
       <config:config-item config:name="PrinterName" config:type="string">Generic Printer</config:config-item>
       <config:config-item-map-indexed config:name="ForbiddenCharacters">
         <config:config-item-map-entry>
@@ -1202,7 +1345,7 @@
   </office:styles>
   <office:automatic-styles>
     <style:page-layout style:name="Mpm1">
-      <style:page-layout-properties style:writing-mode="lr-tb"/>
+      <style:page-layout-properties style:scale-to="59%" style:writing-mode="lr-tb"/>
       <style:header-style>
         <style:header-footer-properties fo:min-height="21.26pt" fo:margin-left="0pt" fo:margin-right="0pt" fo:margin-bottom="7.09pt"/>
       </style:header-style>
@@ -1253,9 +1396,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2018-10-23">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2018-12-14">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="22:16:42.486907728">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="15:12:41.809857640">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
